--- a/docs/ST3/ST3_01.08.24_output.xlsx
+++ b/docs/ST3/ST3_01.08.24_output.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L58"/>
+  <dimension ref="A1:N58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,55 +437,65 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0.1</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>name</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>open</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>close</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>open_image</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>close_img</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>pos</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>traider</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>open_price</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>close_price</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>quity</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>percent</t>
         </is>
@@ -495,95 +505,107 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="inlineStr">
         <is>
           <t>moex</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2024-06-14 16:05:29.360793</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2024-06-14 16:08:51.910451</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>VisualTraider</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>1731672567.836148</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>1731672569.5727735</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>./test_images/SBER1731672567.836148.png</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>./test_images/SBER1731672569.5727735.png</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I3" t="n">
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K3" t="n">
         <v>289.74</v>
       </c>
-      <c r="J3" t="n">
+      <c r="L3" t="n">
         <v>289.38</v>
       </c>
-      <c r="K3" t="n">
+      <c r="M3" t="n">
         <v>-0.3600000000000136</v>
       </c>
-      <c r="L3" t="n">
+      <c r="N3" t="n">
         <v>-0.12</v>
       </c>
     </row>
@@ -591,51 +613,57 @@
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>1731672577.6853464</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>1731672580.4432697</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>./test_images/SBER1731672577.6853464.png</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>./test_images/SBER1731672580.4432697.png</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I4" t="n">
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K4" t="n">
         <v>289.42</v>
       </c>
-      <c r="J4" t="n">
+      <c r="L4" t="n">
         <v>289.77</v>
       </c>
-      <c r="K4" t="n">
+      <c r="M4" t="n">
         <v>-0.3499999999999659</v>
       </c>
-      <c r="L4" t="n">
+      <c r="N4" t="n">
         <v>-0.12</v>
       </c>
     </row>
@@ -643,95 +671,107 @@
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>1731672592.792788</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>./test_images/SBER1731672592.792788.png</t>
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr">
         <is>
+          <t>./test_images/SBER1731672592.792788.png</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I5" t="n">
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
         <v>287.94</v>
       </c>
-      <c r="J5" t="n">
-        <v>287.94</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>287.75</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0.1899999999999977</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.06999999999999999</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>1731672595.415482</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>1731672599.9145935</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731672595.415482.png</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731672599.9145935.png</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I6" t="n">
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
         <v>133.7</v>
       </c>
-      <c r="J6" t="n">
+      <c r="L6" t="n">
         <v>133.41</v>
       </c>
-      <c r="K6" t="n">
+      <c r="M6" t="n">
         <v>-0.289999999999992</v>
       </c>
-      <c r="L6" t="n">
+      <c r="N6" t="n">
         <v>-0.22</v>
       </c>
     </row>
@@ -739,51 +779,57 @@
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>1731672603.4999754</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>1731672610.2513754</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731672603.4999754.png</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731672610.2513754.png</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I7" t="n">
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
         <v>133.22</v>
       </c>
-      <c r="J7" t="n">
+      <c r="L7" t="n">
         <v>133.25</v>
       </c>
-      <c r="K7" t="n">
+      <c r="M7" t="n">
         <v>-0.03000000000000114</v>
       </c>
-      <c r="L7" t="n">
+      <c r="N7" t="n">
         <v>-0.02</v>
       </c>
     </row>
@@ -791,51 +837,57 @@
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>6</v>
+      </c>
+      <c r="D8" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>1731672615.3668065</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>1731672616.7820475</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731672615.3668065.png</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731672616.7820475.png</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I8" t="n">
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
         <v>132.77</v>
       </c>
-      <c r="J8" t="n">
+      <c r="L8" t="n">
         <v>132.26</v>
       </c>
-      <c r="K8" t="n">
+      <c r="M8" t="n">
         <v>0.5100000000000193</v>
       </c>
-      <c r="L8" t="n">
+      <c r="N8" t="n">
         <v>0.38</v>
       </c>
     </row>
@@ -843,51 +895,57 @@
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="n">
+        <v>7</v>
+      </c>
+      <c r="D9" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>1731672618.08938</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>1731672619.5945</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731672618.08938.png</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731672619.5945.png</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="I9" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I9" t="n">
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
         <v>132.43</v>
       </c>
-      <c r="J9" t="n">
+      <c r="L9" t="n">
         <v>131.84</v>
       </c>
-      <c r="K9" t="n">
+      <c r="M9" t="n">
         <v>0.5900000000000034</v>
       </c>
-      <c r="L9" t="n">
+      <c r="N9" t="n">
         <v>0.45</v>
       </c>
     </row>
@@ -895,95 +953,107 @@
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="n">
+        <v>8</v>
+      </c>
+      <c r="D10" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>1731672620.4057856</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>./test_images/GAZP1731672620.4057856.png</t>
         </is>
       </c>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr">
         <is>
+          <t>./test_images/GAZP1731672620.4057856.png</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I10" t="n">
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
         <v>132.22</v>
       </c>
-      <c r="J10" t="n">
-        <v>132.22</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>132.1</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0.1200000000000045</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0.09</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="n">
+        <v>9</v>
+      </c>
+      <c r="D11" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>1731672636.4916546</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>1731672643.1238194</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731672636.4916546.png</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731672643.1238194.png</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="I11" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I11" t="n">
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
         <v>6726</v>
       </c>
-      <c r="J11" t="n">
+      <c r="L11" t="n">
         <v>6705.5</v>
       </c>
-      <c r="K11" t="n">
+      <c r="M11" t="n">
         <v>20.5</v>
       </c>
-      <c r="L11" t="n">
+      <c r="N11" t="n">
         <v>0.3</v>
       </c>
     </row>
@@ -991,51 +1061,57 @@
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="n">
+        <v>10</v>
+      </c>
+      <c r="D12" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>1731672653.5389948</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>1731672653.9593716</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731672653.5389948.png</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731672653.9593716.png</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="I12" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I12" t="n">
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
         <v>513.8</v>
       </c>
-      <c r="J12" t="n">
+      <c r="L12" t="n">
         <v>516.65</v>
       </c>
-      <c r="K12" t="n">
+      <c r="M12" t="n">
         <v>2.850000000000023</v>
       </c>
-      <c r="L12" t="n">
+      <c r="N12" t="n">
         <v>0.5499999999999999</v>
       </c>
     </row>
@@ -1043,51 +1119,57 @@
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B13" t="n">
+        <v>11</v>
+      </c>
+      <c r="C13" t="n">
+        <v>11</v>
+      </c>
+      <c r="D13" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>1731672654.9991453</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>1731672663.9514027</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731672654.9991453.png</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="H13" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731672663.9514027.png</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="I13" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I13" t="n">
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
         <v>516.05</v>
       </c>
-      <c r="J13" t="n">
+      <c r="L13" t="n">
         <v>513.55</v>
       </c>
-      <c r="K13" t="n">
+      <c r="M13" t="n">
         <v>-2.5</v>
       </c>
-      <c r="L13" t="n">
+      <c r="N13" t="n">
         <v>-0.48</v>
       </c>
     </row>
@@ -1095,51 +1177,57 @@
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B14" t="n">
+        <v>12</v>
+      </c>
+      <c r="C14" t="n">
+        <v>12</v>
+      </c>
+      <c r="D14" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>1731672669.8988461</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>1731672672.0315256</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731672669.8988461.png</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="H14" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731672672.0315256.png</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="I14" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I14" t="n">
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
         <v>512.7</v>
       </c>
-      <c r="J14" t="n">
+      <c r="L14" t="n">
         <v>512.2</v>
       </c>
-      <c r="K14" t="n">
+      <c r="M14" t="n">
         <v>0.5</v>
       </c>
-      <c r="L14" t="n">
+      <c r="N14" t="n">
         <v>0.1</v>
       </c>
     </row>
@@ -1147,51 +1235,57 @@
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B15" t="n">
+        <v>13</v>
+      </c>
+      <c r="C15" t="n">
+        <v>13</v>
+      </c>
+      <c r="D15" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>1731672675.4508972</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>1731672675.9230235</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731672675.4508972.png</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="H15" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731672675.9230235.png</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="I15" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I15" t="n">
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
         <v>511.2</v>
       </c>
-      <c r="J15" t="n">
+      <c r="L15" t="n">
         <v>506.35</v>
       </c>
-      <c r="K15" t="n">
+      <c r="M15" t="n">
         <v>4.849999999999966</v>
       </c>
-      <c r="L15" t="n">
+      <c r="N15" t="n">
         <v>0.95</v>
       </c>
     </row>
@@ -1199,95 +1293,107 @@
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="B16" t="n">
+        <v>14</v>
+      </c>
+      <c r="C16" t="n">
+        <v>14</v>
+      </c>
+      <c r="D16" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>1731672682.7896998</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>./test_images/ROSN1731672682.7896998.png</t>
         </is>
       </c>
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr">
         <is>
+          <t>./test_images/ROSN1731672682.7896998.png</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr"/>
+      <c r="I16" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I16" t="n">
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
         <v>506.1</v>
       </c>
-      <c r="J16" t="n">
-        <v>506.1</v>
-      </c>
-      <c r="K16" t="n">
-        <v>0</v>
-      </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>506.8</v>
+      </c>
+      <c r="M16" t="n">
+        <v>-0.6999999999999886</v>
+      </c>
+      <c r="N16" t="n">
+        <v>-0.14</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="B17" t="n">
+        <v>15</v>
+      </c>
+      <c r="C17" t="n">
+        <v>15</v>
+      </c>
+      <c r="D17" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>1731672687.2049417</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>1731672701.924401</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731672687.2049417.png</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="H17" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731672701.924401.png</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="I17" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I17" t="n">
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
         <v>233.18</v>
       </c>
-      <c r="J17" t="n">
+      <c r="L17" t="n">
         <v>233.44</v>
       </c>
-      <c r="K17" t="n">
+      <c r="M17" t="n">
         <v>0.2599999999999909</v>
       </c>
-      <c r="L17" t="n">
+      <c r="N17" t="n">
         <v>0.11</v>
       </c>
     </row>
@@ -1295,95 +1401,107 @@
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="B18" t="n">
+        <v>16</v>
+      </c>
+      <c r="C18" t="n">
+        <v>16</v>
+      </c>
+      <c r="D18" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>1731672712.2467587</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>./test_images/MOEX1731672712.2467587.png</t>
         </is>
       </c>
       <c r="F18" t="inlineStr"/>
       <c r="G18" t="inlineStr">
         <is>
+          <t>./test_images/MOEX1731672712.2467587.png</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr"/>
+      <c r="I18" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I18" t="n">
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
         <v>229.74</v>
       </c>
-      <c r="J18" t="n">
-        <v>229.74</v>
-      </c>
-      <c r="K18" t="n">
-        <v>0</v>
-      </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>229.85</v>
+      </c>
+      <c r="M18" t="n">
+        <v>-0.1099999999999852</v>
+      </c>
+      <c r="N18" t="n">
+        <v>-0.05</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="B19" t="n">
+        <v>17</v>
+      </c>
+      <c r="C19" t="n">
+        <v>17</v>
+      </c>
+      <c r="D19" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>1731672715.4487696</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>1731672718.7141197</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731672715.4487696.png</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="H19" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731672718.7141197.png</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
+      <c r="I19" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I19" t="n">
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
         <v>1048.2</v>
       </c>
-      <c r="J19" t="n">
+      <c r="L19" t="n">
         <v>1046.8</v>
       </c>
-      <c r="K19" t="n">
+      <c r="M19" t="n">
         <v>-1.400000000000091</v>
       </c>
-      <c r="L19" t="n">
+      <c r="N19" t="n">
         <v>-0.13</v>
       </c>
     </row>
@@ -1391,51 +1509,57 @@
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="B20" t="n">
+        <v>18</v>
+      </c>
+      <c r="C20" t="n">
+        <v>18</v>
+      </c>
+      <c r="D20" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>1731672728.084572</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>1731672732.1266727</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731672728.084572.png</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="H20" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731672732.1266727.png</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
+      <c r="I20" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I20" t="n">
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
         <v>1039.2</v>
       </c>
-      <c r="J20" t="n">
+      <c r="L20" t="n">
         <v>1034.6</v>
       </c>
-      <c r="K20" t="n">
+      <c r="M20" t="n">
         <v>4.600000000000136</v>
       </c>
-      <c r="L20" t="n">
+      <c r="N20" t="n">
         <v>0.44</v>
       </c>
     </row>
@@ -1443,51 +1567,57 @@
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="B21" t="n">
+        <v>19</v>
+      </c>
+      <c r="C21" t="n">
+        <v>19</v>
+      </c>
+      <c r="D21" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>1731672733.4627612</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>1731672737.7857902</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731672733.4627612.png</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="H21" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731672737.7857902.png</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
+      <c r="I21" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I21" t="n">
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
         <v>1035.6</v>
       </c>
-      <c r="J21" t="n">
+      <c r="L21" t="n">
         <v>1031.4</v>
       </c>
-      <c r="K21" t="n">
+      <c r="M21" t="n">
         <v>4.199999999999818</v>
       </c>
-      <c r="L21" t="n">
+      <c r="N21" t="n">
         <v>0.41</v>
       </c>
     </row>
@@ -1495,51 +1625,57 @@
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="B22" t="n">
+        <v>20</v>
+      </c>
+      <c r="C22" t="n">
+        <v>20</v>
+      </c>
+      <c r="D22" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>1731672738.873145</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>1731672741.4436798</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731672738.873145.png</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="H22" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731672741.4436798.png</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
+      <c r="I22" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I22" t="n">
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
         <v>1032.8</v>
       </c>
-      <c r="J22" t="n">
+      <c r="L22" t="n">
         <v>1028.4</v>
       </c>
-      <c r="K22" t="n">
+      <c r="M22" t="n">
         <v>4.399999999999864</v>
       </c>
-      <c r="L22" t="n">
+      <c r="N22" t="n">
         <v>0.43</v>
       </c>
     </row>
@@ -1547,43 +1683,49 @@
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="B23" t="n">
+        <v>21</v>
+      </c>
+      <c r="C23" t="n">
+        <v>21</v>
+      </c>
+      <c r="D23" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>1731672743.647685</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr"/>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>./test_images/NVTK1731672743.647685.png</t>
         </is>
       </c>
       <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr">
         <is>
+          <t>./test_images/NVTK1731672743.647685.png</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr"/>
+      <c r="I23" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I23" t="n">
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
         <v>1030.6</v>
       </c>
-      <c r="J23" t="n">
+      <c r="L23" t="n">
         <v>1030.6</v>
       </c>
-      <c r="K23" t="n">
+      <c r="M23" t="n">
         <v>0</v>
       </c>
-      <c r="L23" t="n">
+      <c r="N23" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1591,51 +1733,57 @@
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="B24" t="n">
+        <v>22</v>
+      </c>
+      <c r="C24" t="n">
+        <v>22</v>
+      </c>
+      <c r="D24" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>1731672745.9938455</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>1731672751.2455435</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731672745.9938455.png</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="H24" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731672751.2455435.png</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr">
+      <c r="I24" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I24" t="n">
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
         <v>130.16</v>
       </c>
-      <c r="J24" t="n">
+      <c r="L24" t="n">
         <v>129.4</v>
       </c>
-      <c r="K24" t="n">
+      <c r="M24" t="n">
         <v>-0.7599999999999909</v>
       </c>
-      <c r="L24" t="n">
+      <c r="N24" t="n">
         <v>-0.58</v>
       </c>
     </row>
@@ -1643,95 +1791,107 @@
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="B25" t="n">
+        <v>23</v>
+      </c>
+      <c r="C25" t="n">
+        <v>23</v>
+      </c>
+      <c r="D25" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>1731672772.3276994</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr"/>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>./test_images/GMKN1731672772.3276994.png</t>
         </is>
       </c>
       <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr">
         <is>
+          <t>./test_images/GMKN1731672772.3276994.png</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr"/>
+      <c r="I25" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I25" t="n">
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
         <v>128.6</v>
       </c>
-      <c r="J25" t="n">
-        <v>128.6</v>
-      </c>
-      <c r="K25" t="n">
-        <v>0</v>
-      </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>128.64</v>
+      </c>
+      <c r="M25" t="n">
+        <v>-0.03999999999999204</v>
+      </c>
+      <c r="N25" t="n">
+        <v>-0.03</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="B26" t="n">
+        <v>24</v>
+      </c>
+      <c r="C26" t="n">
+        <v>24</v>
+      </c>
+      <c r="D26" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>1731672774.6446686</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>1731672774.8300629</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731672774.6446686.png</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="H26" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731672774.8300629.png</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr">
+      <c r="I26" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I26" t="n">
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
         <v>165.66</v>
       </c>
-      <c r="J26" t="n">
+      <c r="L26" t="n">
         <v>166.4</v>
       </c>
-      <c r="K26" t="n">
+      <c r="M26" t="n">
         <v>0.7400000000000091</v>
       </c>
-      <c r="L26" t="n">
+      <c r="N26" t="n">
         <v>0.45</v>
       </c>
     </row>
@@ -1739,51 +1899,57 @@
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="B27" t="n">
+        <v>25</v>
+      </c>
+      <c r="C27" t="n">
+        <v>25</v>
+      </c>
+      <c r="D27" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>1731672776.8066747</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>1731672781.9520912</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731672776.8066747.png</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
+      <c r="H27" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731672781.9520912.png</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr">
+      <c r="I27" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I27" t="n">
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
         <v>166.56</v>
       </c>
-      <c r="J27" t="n">
+      <c r="L27" t="n">
         <v>166.78</v>
       </c>
-      <c r="K27" t="n">
+      <c r="M27" t="n">
         <v>0.2199999999999989</v>
       </c>
-      <c r="L27" t="n">
+      <c r="N27" t="n">
         <v>0.13</v>
       </c>
     </row>
@@ -1791,51 +1957,57 @@
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="B28" t="n">
+        <v>26</v>
+      </c>
+      <c r="C28" t="n">
+        <v>26</v>
+      </c>
+      <c r="D28" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>1731672783.7959213</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>1731672789.053246</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731672783.7959213.png</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
+      <c r="H28" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731672789.053246.png</t>
         </is>
       </c>
-      <c r="G28" t="inlineStr">
+      <c r="I28" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I28" t="n">
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
         <v>166.9</v>
       </c>
-      <c r="J28" t="n">
+      <c r="L28" t="n">
         <v>166.2</v>
       </c>
-      <c r="K28" t="n">
+      <c r="M28" t="n">
         <v>-0.7000000000000171</v>
       </c>
-      <c r="L28" t="n">
+      <c r="N28" t="n">
         <v>-0.42</v>
       </c>
     </row>
@@ -1843,95 +2015,107 @@
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="B29" t="n">
+        <v>27</v>
+      </c>
+      <c r="C29" t="n">
+        <v>27</v>
+      </c>
+      <c r="D29" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>1731672800.3179312</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr"/>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>./test_images/NLMK1731672800.3179312.png</t>
         </is>
       </c>
       <c r="F29" t="inlineStr"/>
       <c r="G29" t="inlineStr">
         <is>
+          <t>./test_images/NLMK1731672800.3179312.png</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr"/>
+      <c r="I29" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I29" t="n">
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
         <v>164.86</v>
       </c>
-      <c r="J29" t="n">
-        <v>164.86</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0</v>
-      </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>164.66</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0.2000000000000171</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0.12</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="B30" t="inlineStr">
+      <c r="B30" t="n">
+        <v>28</v>
+      </c>
+      <c r="C30" t="n">
+        <v>28</v>
+      </c>
+      <c r="D30" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>1731672820.740555</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>1731672823.4806583</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731672820.740555.png</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
+      <c r="H30" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731672823.4806583.png</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr">
+      <c r="I30" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I30" t="n">
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
         <v>50.92</v>
       </c>
-      <c r="J30" t="n">
+      <c r="L30" t="n">
         <v>50.9</v>
       </c>
-      <c r="K30" t="n">
+      <c r="M30" t="n">
         <v>0.02000000000000313</v>
       </c>
-      <c r="L30" t="n">
+      <c r="N30" t="n">
         <v>0.04</v>
       </c>
     </row>
@@ -1939,51 +2123,57 @@
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="B31" t="inlineStr">
+      <c r="B31" t="n">
+        <v>29</v>
+      </c>
+      <c r="C31" t="n">
+        <v>29</v>
+      </c>
+      <c r="D31" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>1731672826.8715086</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
+      <c r="F31" t="inlineStr">
         <is>
           <t>1731672830.6402438</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
+      <c r="G31" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731672826.8715086.png</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
+      <c r="H31" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731672830.6402438.png</t>
         </is>
       </c>
-      <c r="G31" t="inlineStr">
+      <c r="I31" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I31" t="n">
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
         <v>50.83</v>
       </c>
-      <c r="J31" t="n">
+      <c r="L31" t="n">
         <v>50.715</v>
       </c>
-      <c r="K31" t="n">
+      <c r="M31" t="n">
         <v>0.1149999999999949</v>
       </c>
-      <c r="L31" t="n">
+      <c r="N31" t="n">
         <v>0.23</v>
       </c>
     </row>
@@ -1991,51 +2181,57 @@
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="B32" t="inlineStr">
+      <c r="B32" t="n">
+        <v>30</v>
+      </c>
+      <c r="C32" t="n">
+        <v>30</v>
+      </c>
+      <c r="D32" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
+      <c r="E32" t="inlineStr">
         <is>
           <t>1731672845.4536133</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
+      <c r="F32" t="inlineStr">
         <is>
           <t>1731672847.3389924</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731672845.4536133.png</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
+      <c r="H32" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731672847.3389924.png</t>
         </is>
       </c>
-      <c r="G32" t="inlineStr">
+      <c r="I32" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I32" t="n">
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
         <v>1418.2</v>
       </c>
-      <c r="J32" t="n">
+      <c r="L32" t="n">
         <v>1416.2</v>
       </c>
-      <c r="K32" t="n">
+      <c r="M32" t="n">
         <v>-2</v>
       </c>
-      <c r="L32" t="n">
+      <c r="N32" t="n">
         <v>-0.14</v>
       </c>
     </row>
@@ -2043,51 +2239,57 @@
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="B33" t="inlineStr">
+      <c r="B33" t="n">
+        <v>31</v>
+      </c>
+      <c r="C33" t="n">
+        <v>31</v>
+      </c>
+      <c r="D33" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
+      <c r="E33" t="inlineStr">
         <is>
           <t>1731672856.0392144</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
+      <c r="F33" t="inlineStr">
         <is>
           <t>1731672856.1580043</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731672856.0392144.png</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
+      <c r="H33" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731672856.1580043.png</t>
         </is>
       </c>
-      <c r="G33" t="inlineStr">
+      <c r="I33" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I33" t="n">
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
         <v>1416.6</v>
       </c>
-      <c r="J33" t="n">
+      <c r="L33" t="n">
         <v>1414.8</v>
       </c>
-      <c r="K33" t="n">
+      <c r="M33" t="n">
         <v>1.799999999999955</v>
       </c>
-      <c r="L33" t="n">
+      <c r="N33" t="n">
         <v>0.13</v>
       </c>
     </row>
@@ -2095,95 +2297,107 @@
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="B34" t="inlineStr">
+      <c r="B34" t="n">
+        <v>32</v>
+      </c>
+      <c r="C34" t="n">
+        <v>32</v>
+      </c>
+      <c r="D34" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
+      <c r="E34" t="inlineStr">
         <is>
           <t>1731672862.128609</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr"/>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>./test_images/CHMF1731672862.128609.png</t>
         </is>
       </c>
       <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr">
         <is>
+          <t>./test_images/CHMF1731672862.128609.png</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr"/>
+      <c r="I34" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I34" t="n">
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
         <v>1411.6</v>
       </c>
-      <c r="J34" t="n">
-        <v>1411.6</v>
-      </c>
-      <c r="K34" t="n">
-        <v>0</v>
-      </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>1412.6</v>
+      </c>
+      <c r="M34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="N34" t="n">
+        <v>-0.06999999999999999</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="B35" t="inlineStr">
+      <c r="B35" t="n">
+        <v>33</v>
+      </c>
+      <c r="C35" t="n">
+        <v>33</v>
+      </c>
+      <c r="D35" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
+      <c r="E35" t="inlineStr">
         <is>
           <t>1731672865.956132</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
+      <c r="F35" t="inlineStr">
         <is>
           <t>1731672866.080516</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
+      <c r="G35" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731672865.956132.png</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
+      <c r="H35" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731672866.080516.png</t>
         </is>
       </c>
-      <c r="G35" t="inlineStr">
+      <c r="I35" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I35" t="n">
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
         <v>60.97</v>
       </c>
-      <c r="J35" t="n">
+      <c r="L35" t="n">
         <v>61.1</v>
       </c>
-      <c r="K35" t="n">
+      <c r="M35" t="n">
         <v>0.1300000000000026</v>
       </c>
-      <c r="L35" t="n">
+      <c r="N35" t="n">
         <v>0.21</v>
       </c>
     </row>
@@ -2191,51 +2405,57 @@
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="B36" t="inlineStr">
+      <c r="B36" t="n">
+        <v>34</v>
+      </c>
+      <c r="C36" t="n">
+        <v>34</v>
+      </c>
+      <c r="D36" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
+      <c r="E36" t="inlineStr">
         <is>
           <t>1731672876.271534</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
+      <c r="F36" t="inlineStr">
         <is>
           <t>1731672880.5928326</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
+      <c r="G36" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731672876.271534.png</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr">
+      <c r="H36" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731672880.5928326.png</t>
         </is>
       </c>
-      <c r="G36" t="inlineStr">
+      <c r="I36" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I36" t="n">
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
         <v>61.31</v>
       </c>
-      <c r="J36" t="n">
+      <c r="L36" t="n">
         <v>61.34</v>
       </c>
-      <c r="K36" t="n">
+      <c r="M36" t="n">
         <v>0.03000000000000114</v>
       </c>
-      <c r="L36" t="n">
+      <c r="N36" t="n">
         <v>0.05</v>
       </c>
     </row>
@@ -2243,51 +2463,57 @@
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="B37" t="inlineStr">
+      <c r="B37" t="n">
+        <v>35</v>
+      </c>
+      <c r="C37" t="n">
+        <v>35</v>
+      </c>
+      <c r="D37" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
+      <c r="E37" t="inlineStr">
         <is>
           <t>1731672899.8972957</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
+      <c r="F37" t="inlineStr">
         <is>
           <t>1731672902.7102437</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
+      <c r="G37" t="inlineStr">
         <is>
           <t>./test_images/SELG1731672899.8972957.png</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
+      <c r="H37" t="inlineStr">
         <is>
           <t>./test_images/SELG1731672902.7102437.png</t>
         </is>
       </c>
-      <c r="G37" t="inlineStr">
+      <c r="I37" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I37" t="n">
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
         <v>58.81</v>
       </c>
-      <c r="J37" t="n">
+      <c r="L37" t="n">
         <v>58.75</v>
       </c>
-      <c r="K37" t="n">
+      <c r="M37" t="n">
         <v>-0.06000000000000227</v>
       </c>
-      <c r="L37" t="n">
+      <c r="N37" t="n">
         <v>-0.1</v>
       </c>
     </row>
@@ -2295,95 +2521,107 @@
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="B38" t="inlineStr">
+      <c r="B38" t="n">
+        <v>36</v>
+      </c>
+      <c r="C38" t="n">
+        <v>36</v>
+      </c>
+      <c r="D38" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
+      <c r="E38" t="inlineStr">
         <is>
           <t>1731672925.9435914</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr"/>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>./test_images/SELG1731672925.9435914.png</t>
         </is>
       </c>
       <c r="F38" t="inlineStr"/>
       <c r="G38" t="inlineStr">
         <is>
+          <t>./test_images/SELG1731672925.9435914.png</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr"/>
+      <c r="I38" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I38" t="n">
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
         <v>57.18</v>
       </c>
-      <c r="J38" t="n">
-        <v>57.18</v>
-      </c>
-      <c r="K38" t="n">
-        <v>0</v>
-      </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>57.2</v>
+      </c>
+      <c r="M38" t="n">
+        <v>-0.02000000000000313</v>
+      </c>
+      <c r="N38" t="n">
+        <v>-0.03</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="B39" t="inlineStr">
+      <c r="B39" t="n">
+        <v>37</v>
+      </c>
+      <c r="C39" t="n">
+        <v>37</v>
+      </c>
+      <c r="D39" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
+      <c r="E39" t="inlineStr">
         <is>
           <t>1731672929.0904734</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
+      <c r="F39" t="inlineStr">
         <is>
           <t>1731672936.281592</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
+      <c r="G39" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731672929.0904734.png</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
+      <c r="H39" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731672936.281592.png</t>
         </is>
       </c>
-      <c r="G39" t="inlineStr">
+      <c r="I39" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I39" t="n">
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
         <v>144.74</v>
       </c>
-      <c r="J39" t="n">
+      <c r="L39" t="n">
         <v>145.76</v>
       </c>
-      <c r="K39" t="n">
+      <c r="M39" t="n">
         <v>1.019999999999982</v>
       </c>
-      <c r="L39" t="n">
+      <c r="N39" t="n">
         <v>0.7000000000000001</v>
       </c>
     </row>
@@ -2391,101 +2629,113 @@
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="B40" t="inlineStr">
+      <c r="B40" t="n">
+        <v>38</v>
+      </c>
+      <c r="C40" t="n">
+        <v>38</v>
+      </c>
+      <c r="D40" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
+      <c r="E40" t="inlineStr">
         <is>
           <t>1731672929.7046692</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
+      <c r="F40" t="inlineStr">
         <is>
           <t>1731673004.2336118</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr">
+      <c r="G40" t="inlineStr">
         <is>
           <t>./test_images/MXI1731672929.7046692.png</t>
         </is>
       </c>
-      <c r="F40" t="inlineStr">
+      <c r="H40" t="inlineStr">
         <is>
           <t>./test_images/MXI1731673004.2336118.png</t>
         </is>
       </c>
-      <c r="G40" t="inlineStr">
+      <c r="I40" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
+      <c r="J40" t="inlineStr">
         <is>
           <t>VisualTraider_v3</t>
         </is>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>0</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
       </c>
-      <c r="L40" t="inlineStr"/>
+      <c r="L40" t="n">
+        <v>0</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0</v>
+      </c>
+      <c r="N40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="B41" t="inlineStr">
+      <c r="B41" t="n">
+        <v>39</v>
+      </c>
+      <c r="C41" t="n">
+        <v>39</v>
+      </c>
+      <c r="D41" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
+      <c r="E41" t="inlineStr">
         <is>
           <t>1731672960.2358155</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr">
+      <c r="F41" t="inlineStr">
         <is>
           <t>1731672968.594098</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr">
+      <c r="G41" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731672960.2358155.png</t>
         </is>
       </c>
-      <c r="F41" t="inlineStr">
+      <c r="H41" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731672968.594098.png</t>
         </is>
       </c>
-      <c r="G41" t="inlineStr">
+      <c r="I41" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I41" t="n">
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
         <v>21.354</v>
       </c>
-      <c r="J41" t="n">
+      <c r="L41" t="n">
         <v>21.197</v>
       </c>
-      <c r="K41" t="n">
+      <c r="M41" t="n">
         <v>-0.157</v>
       </c>
-      <c r="L41" t="n">
+      <c r="N41" t="n">
         <v>-0.74</v>
       </c>
     </row>
@@ -2493,95 +2743,107 @@
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="B42" t="inlineStr">
+      <c r="B42" t="n">
+        <v>40</v>
+      </c>
+      <c r="C42" t="n">
+        <v>40</v>
+      </c>
+      <c r="D42" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
+      <c r="E42" t="inlineStr">
         <is>
           <t>1731672985.3394854</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr"/>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>./test_images/AFKS1731672985.3394854.png</t>
         </is>
       </c>
       <c r="F42" t="inlineStr"/>
       <c r="G42" t="inlineStr">
         <is>
+          <t>./test_images/AFKS1731672985.3394854.png</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr"/>
+      <c r="I42" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I42" t="n">
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
         <v>20.842</v>
       </c>
-      <c r="J42" t="n">
-        <v>20.842</v>
-      </c>
-      <c r="K42" t="n">
-        <v>0</v>
-      </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>20.831</v>
+      </c>
+      <c r="M42" t="n">
+        <v>0.01099999999999923</v>
+      </c>
+      <c r="N42" t="n">
+        <v>0.05</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="B43" t="inlineStr">
+      <c r="B43" t="n">
+        <v>41</v>
+      </c>
+      <c r="C43" t="n">
+        <v>41</v>
+      </c>
+      <c r="D43" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
+      <c r="E43" t="inlineStr">
         <is>
           <t>1731673001.7303803</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr">
+      <c r="F43" t="inlineStr">
         <is>
           <t>1731673004.56731</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr">
+      <c r="G43" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731673001.7303803.png</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr">
+      <c r="H43" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731673004.56731.png</t>
         </is>
       </c>
-      <c r="G43" t="inlineStr">
+      <c r="I43" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I43" t="n">
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
         <v>682.05</v>
       </c>
-      <c r="J43" t="n">
+      <c r="L43" t="n">
         <v>681.05</v>
       </c>
-      <c r="K43" t="n">
+      <c r="M43" t="n">
         <v>1</v>
       </c>
-      <c r="L43" t="n">
+      <c r="N43" t="n">
         <v>0.15</v>
       </c>
     </row>
@@ -2589,51 +2851,57 @@
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="B44" t="inlineStr">
+      <c r="B44" t="n">
+        <v>42</v>
+      </c>
+      <c r="C44" t="n">
+        <v>42</v>
+      </c>
+      <c r="D44" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
+      <c r="E44" t="inlineStr">
         <is>
           <t>1731673010.728566</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr">
+      <c r="F44" t="inlineStr">
         <is>
           <t>1731673013.5907211</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr">
+      <c r="G44" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731673010.728566.png</t>
         </is>
       </c>
-      <c r="F44" t="inlineStr">
+      <c r="H44" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731673013.5907211.png</t>
         </is>
       </c>
-      <c r="G44" t="inlineStr">
+      <c r="I44" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I44" t="n">
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K44" t="n">
         <v>678.55</v>
       </c>
-      <c r="J44" t="n">
+      <c r="L44" t="n">
         <v>677.85</v>
       </c>
-      <c r="K44" t="n">
+      <c r="M44" t="n">
         <v>0.6999999999999318</v>
       </c>
-      <c r="L44" t="n">
+      <c r="N44" t="n">
         <v>0.1</v>
       </c>
     </row>
@@ -2641,51 +2909,57 @@
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="B45" t="inlineStr">
+      <c r="B45" t="n">
+        <v>43</v>
+      </c>
+      <c r="C45" t="n">
+        <v>43</v>
+      </c>
+      <c r="D45" t="inlineStr">
         <is>
           <t>FEES</t>
         </is>
       </c>
-      <c r="C45" t="inlineStr">
+      <c r="E45" t="inlineStr">
         <is>
           <t>1731673035.0722585</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr">
+      <c r="F45" t="inlineStr">
         <is>
           <t>1731673041.5232341</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr">
+      <c r="G45" t="inlineStr">
         <is>
           <t>./test_images/FEES1731673035.0722585.png</t>
         </is>
       </c>
-      <c r="F45" t="inlineStr">
+      <c r="H45" t="inlineStr">
         <is>
           <t>./test_images/FEES1731673041.5232341.png</t>
         </is>
       </c>
-      <c r="G45" t="inlineStr">
+      <c r="I45" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I45" t="n">
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K45" t="n">
         <v>0.10082</v>
       </c>
-      <c r="J45" t="n">
+      <c r="L45" t="n">
         <v>0.09988000000000001</v>
       </c>
-      <c r="K45" t="n">
+      <c r="M45" t="n">
         <v>-0.0009399999999999964</v>
       </c>
-      <c r="L45" t="n">
+      <c r="N45" t="n">
         <v>-0.9299999999999999</v>
       </c>
     </row>
@@ -2693,51 +2967,57 @@
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
-      <c r="B46" t="inlineStr">
+      <c r="B46" t="n">
+        <v>44</v>
+      </c>
+      <c r="C46" t="n">
+        <v>44</v>
+      </c>
+      <c r="D46" t="inlineStr">
         <is>
           <t>FEES</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr">
+      <c r="E46" t="inlineStr">
         <is>
           <t>1731673042.7402198</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr">
+      <c r="F46" t="inlineStr">
         <is>
           <t>1731673042.9125075</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr">
+      <c r="G46" t="inlineStr">
         <is>
           <t>./test_images/FEES1731673042.7402198.png</t>
         </is>
       </c>
-      <c r="F46" t="inlineStr">
+      <c r="H46" t="inlineStr">
         <is>
           <t>./test_images/FEES1731673042.9125075.png</t>
         </is>
       </c>
-      <c r="G46" t="inlineStr">
+      <c r="I46" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I46" t="n">
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K46" t="n">
         <v>0.09988000000000001</v>
       </c>
-      <c r="J46" t="n">
+      <c r="L46" t="n">
         <v>0.09952000000000001</v>
       </c>
-      <c r="K46" t="n">
+      <c r="M46" t="n">
         <v>0.0003599999999999992</v>
       </c>
-      <c r="L46" t="n">
+      <c r="N46" t="n">
         <v>0.36</v>
       </c>
     </row>
@@ -2745,95 +3025,107 @@
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="B47" t="inlineStr">
+      <c r="B47" t="n">
+        <v>45</v>
+      </c>
+      <c r="C47" t="n">
+        <v>45</v>
+      </c>
+      <c r="D47" t="inlineStr">
         <is>
           <t>FEES</t>
         </is>
       </c>
-      <c r="C47" t="inlineStr">
+      <c r="E47" t="inlineStr">
         <is>
           <t>1731673044.2994747</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr"/>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>./test_images/FEES1731673044.2994747.png</t>
         </is>
       </c>
       <c r="F47" t="inlineStr"/>
       <c r="G47" t="inlineStr">
         <is>
+          <t>./test_images/FEES1731673044.2994747.png</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr"/>
+      <c r="I47" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I47" t="n">
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K47" t="n">
         <v>0.09962000000000001</v>
       </c>
-      <c r="J47" t="n">
-        <v>0.09962000000000001</v>
-      </c>
-      <c r="K47" t="n">
-        <v>0</v>
-      </c>
       <c r="L47" t="n">
-        <v>0</v>
+        <v>0.09927999999999999</v>
+      </c>
+      <c r="M47" t="n">
+        <v>0.0003400000000000208</v>
+      </c>
+      <c r="N47" t="n">
+        <v>0.34</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
-      <c r="B48" t="inlineStr">
+      <c r="B48" t="n">
+        <v>46</v>
+      </c>
+      <c r="C48" t="n">
+        <v>46</v>
+      </c>
+      <c r="D48" t="inlineStr">
         <is>
           <t>HYDR</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr">
+      <c r="E48" t="inlineStr">
         <is>
           <t>1731673067.7517378</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr">
+      <c r="F48" t="inlineStr">
         <is>
           <t>1731673072.207941</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr">
+      <c r="G48" t="inlineStr">
         <is>
           <t>./test_images/HYDR1731673067.7517378.png</t>
         </is>
       </c>
-      <c r="F48" t="inlineStr">
+      <c r="H48" t="inlineStr">
         <is>
           <t>./test_images/HYDR1731673072.207941.png</t>
         </is>
       </c>
-      <c r="G48" t="inlineStr">
+      <c r="I48" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I48" t="n">
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K48" t="n">
         <v>0.606</v>
       </c>
-      <c r="J48" t="n">
+      <c r="L48" t="n">
         <v>0.6039</v>
       </c>
-      <c r="K48" t="n">
+      <c r="M48" t="n">
         <v>-0.002099999999999991</v>
       </c>
-      <c r="L48" t="n">
+      <c r="N48" t="n">
         <v>-0.35</v>
       </c>
     </row>
@@ -2841,95 +3133,107 @@
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
-      <c r="B49" t="inlineStr">
+      <c r="B49" t="n">
+        <v>47</v>
+      </c>
+      <c r="C49" t="n">
+        <v>47</v>
+      </c>
+      <c r="D49" t="inlineStr">
         <is>
           <t>HYDR</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr">
+      <c r="E49" t="inlineStr">
         <is>
           <t>1731673074.7956743</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr"/>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>./test_images/HYDR1731673074.7956743.png</t>
         </is>
       </c>
       <c r="F49" t="inlineStr"/>
       <c r="G49" t="inlineStr">
         <is>
+          <t>./test_images/HYDR1731673074.7956743.png</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr"/>
+      <c r="I49" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I49" t="n">
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K49" t="n">
         <v>0.6023000000000001</v>
       </c>
-      <c r="J49" t="n">
-        <v>0.6023000000000001</v>
-      </c>
-      <c r="K49" t="n">
-        <v>0</v>
-      </c>
       <c r="L49" t="n">
-        <v>0</v>
+        <v>0.6012999999999999</v>
+      </c>
+      <c r="M49" t="n">
+        <v>0.001000000000000112</v>
+      </c>
+      <c r="N49" t="n">
+        <v>0.17</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
-      <c r="B50" t="inlineStr">
+      <c r="B50" t="n">
+        <v>48</v>
+      </c>
+      <c r="C50" t="n">
+        <v>48</v>
+      </c>
+      <c r="D50" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr">
+      <c r="E50" t="inlineStr">
         <is>
           <t>1731673077.3689234</t>
         </is>
       </c>
-      <c r="D50" t="inlineStr">
+      <c r="F50" t="inlineStr">
         <is>
           <t>1731673077.554807</t>
         </is>
       </c>
-      <c r="E50" t="inlineStr">
+      <c r="G50" t="inlineStr">
         <is>
           <t>./test_images/MXI1731673077.3689234.png</t>
         </is>
       </c>
-      <c r="F50" t="inlineStr">
+      <c r="H50" t="inlineStr">
         <is>
           <t>./test_images/MXI1731673077.554807.png</t>
         </is>
       </c>
-      <c r="G50" t="inlineStr">
+      <c r="I50" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I50" t="n">
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K50" t="n">
         <v>3028.25</v>
       </c>
-      <c r="J50" t="n">
+      <c r="L50" t="n">
         <v>3034.05</v>
       </c>
-      <c r="K50" t="n">
+      <c r="M50" t="n">
         <v>5.800000000000182</v>
       </c>
-      <c r="L50" t="n">
+      <c r="N50" t="n">
         <v>0.19</v>
       </c>
     </row>
@@ -2937,51 +3241,57 @@
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
-      <c r="B51" t="inlineStr">
+      <c r="B51" t="n">
+        <v>49</v>
+      </c>
+      <c r="C51" t="n">
+        <v>49</v>
+      </c>
+      <c r="D51" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C51" t="inlineStr">
+      <c r="E51" t="inlineStr">
         <is>
           <t>1731673078.3441727</t>
         </is>
       </c>
-      <c r="D51" t="inlineStr">
+      <c r="F51" t="inlineStr">
         <is>
           <t>1731673079.4063563</t>
         </is>
       </c>
-      <c r="E51" t="inlineStr">
+      <c r="G51" t="inlineStr">
         <is>
           <t>./test_images/MXI1731673078.3441727.png</t>
         </is>
       </c>
-      <c r="F51" t="inlineStr">
+      <c r="H51" t="inlineStr">
         <is>
           <t>./test_images/MXI1731673079.4063563.png</t>
         </is>
       </c>
-      <c r="G51" t="inlineStr">
+      <c r="I51" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I51" t="n">
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K51" t="n">
         <v>3038.15</v>
       </c>
-      <c r="J51" t="n">
+      <c r="L51" t="n">
         <v>3036.5</v>
       </c>
-      <c r="K51" t="n">
+      <c r="M51" t="n">
         <v>-1.650000000000091</v>
       </c>
-      <c r="L51" t="n">
+      <c r="N51" t="n">
         <v>-0.05</v>
       </c>
     </row>
@@ -2989,51 +3299,57 @@
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="B52" t="inlineStr">
+      <c r="B52" t="n">
+        <v>50</v>
+      </c>
+      <c r="C52" t="n">
+        <v>50</v>
+      </c>
+      <c r="D52" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C52" t="inlineStr">
+      <c r="E52" t="inlineStr">
         <is>
           <t>1731673081.5341332</t>
         </is>
       </c>
-      <c r="D52" t="inlineStr">
+      <c r="F52" t="inlineStr">
         <is>
           <t>1731673083.1860147</t>
         </is>
       </c>
-      <c r="E52" t="inlineStr">
+      <c r="G52" t="inlineStr">
         <is>
           <t>./test_images/MXI1731673081.5341332.png</t>
         </is>
       </c>
-      <c r="F52" t="inlineStr">
+      <c r="H52" t="inlineStr">
         <is>
           <t>./test_images/MXI1731673083.1860147.png</t>
         </is>
       </c>
-      <c r="G52" t="inlineStr">
+      <c r="I52" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I52" t="n">
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K52" t="n">
         <v>3027.5</v>
       </c>
-      <c r="J52" t="n">
+      <c r="L52" t="n">
         <v>3025.35</v>
       </c>
-      <c r="K52" t="n">
+      <c r="M52" t="n">
         <v>2.150000000000091</v>
       </c>
-      <c r="L52" t="n">
+      <c r="N52" t="n">
         <v>0.06999999999999999</v>
       </c>
     </row>
@@ -3041,51 +3357,57 @@
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
-      <c r="B53" t="inlineStr">
+      <c r="B53" t="n">
+        <v>51</v>
+      </c>
+      <c r="C53" t="n">
+        <v>51</v>
+      </c>
+      <c r="D53" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C53" t="inlineStr">
+      <c r="E53" t="inlineStr">
         <is>
           <t>1731673085.9285173</t>
         </is>
       </c>
-      <c r="D53" t="inlineStr">
+      <c r="F53" t="inlineStr">
         <is>
           <t>1731673087.317665</t>
         </is>
       </c>
-      <c r="E53" t="inlineStr">
+      <c r="G53" t="inlineStr">
         <is>
           <t>./test_images/MXI1731673085.9285173.png</t>
         </is>
       </c>
-      <c r="F53" t="inlineStr">
+      <c r="H53" t="inlineStr">
         <is>
           <t>./test_images/MXI1731673087.317665.png</t>
         </is>
       </c>
-      <c r="G53" t="inlineStr">
+      <c r="I53" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I53" t="n">
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K53" t="n">
         <v>3032.25</v>
       </c>
-      <c r="J53" t="n">
+      <c r="L53" t="n">
         <v>3020.5</v>
       </c>
-      <c r="K53" t="n">
+      <c r="M53" t="n">
         <v>-11.75</v>
       </c>
-      <c r="L53" t="n">
+      <c r="N53" t="n">
         <v>-0.39</v>
       </c>
     </row>
@@ -3093,51 +3415,57 @@
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
-      <c r="B54" t="inlineStr">
+      <c r="B54" t="n">
+        <v>52</v>
+      </c>
+      <c r="C54" t="n">
+        <v>52</v>
+      </c>
+      <c r="D54" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C54" t="inlineStr">
+      <c r="E54" t="inlineStr">
         <is>
           <t>1731673087.5702775</t>
         </is>
       </c>
-      <c r="D54" t="inlineStr">
+      <c r="F54" t="inlineStr">
         <is>
           <t>1731673088.6472583</t>
         </is>
       </c>
-      <c r="E54" t="inlineStr">
+      <c r="G54" t="inlineStr">
         <is>
           <t>./test_images/MXI1731673087.5702775.png</t>
         </is>
       </c>
-      <c r="F54" t="inlineStr">
+      <c r="H54" t="inlineStr">
         <is>
           <t>./test_images/MXI1731673088.6472583.png</t>
         </is>
       </c>
-      <c r="G54" t="inlineStr">
+      <c r="I54" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I54" t="n">
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K54" t="n">
         <v>3026.9</v>
       </c>
-      <c r="J54" t="n">
+      <c r="L54" t="n">
         <v>3021.75</v>
       </c>
-      <c r="K54" t="n">
+      <c r="M54" t="n">
         <v>5.150000000000091</v>
       </c>
-      <c r="L54" t="n">
+      <c r="N54" t="n">
         <v>0.17</v>
       </c>
     </row>
@@ -3145,51 +3473,57 @@
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
-      <c r="B55" t="inlineStr">
+      <c r="B55" t="n">
+        <v>53</v>
+      </c>
+      <c r="C55" t="n">
+        <v>53</v>
+      </c>
+      <c r="D55" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C55" t="inlineStr">
+      <c r="E55" t="inlineStr">
         <is>
           <t>1731673089.1289537</t>
         </is>
       </c>
-      <c r="D55" t="inlineStr">
+      <c r="F55" t="inlineStr">
         <is>
           <t>1731673090.0139024</t>
         </is>
       </c>
-      <c r="E55" t="inlineStr">
+      <c r="G55" t="inlineStr">
         <is>
           <t>./test_images/MXI1731673089.1289537.png</t>
         </is>
       </c>
-      <c r="F55" t="inlineStr">
+      <c r="H55" t="inlineStr">
         <is>
           <t>./test_images/MXI1731673090.0139024.png</t>
         </is>
       </c>
-      <c r="G55" t="inlineStr">
+      <c r="I55" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I55" t="n">
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K55" t="n">
         <v>3022.2</v>
       </c>
-      <c r="J55" t="n">
+      <c r="L55" t="n">
         <v>3015.2</v>
       </c>
-      <c r="K55" t="n">
+      <c r="M55" t="n">
         <v>7</v>
       </c>
-      <c r="L55" t="n">
+      <c r="N55" t="n">
         <v>0.23</v>
       </c>
     </row>
@@ -3197,51 +3531,57 @@
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
-      <c r="B56" t="inlineStr">
+      <c r="B56" t="n">
+        <v>54</v>
+      </c>
+      <c r="C56" t="n">
+        <v>54</v>
+      </c>
+      <c r="D56" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C56" t="inlineStr">
+      <c r="E56" t="inlineStr">
         <is>
           <t>1731673097.4315329</t>
         </is>
       </c>
-      <c r="D56" t="inlineStr">
+      <c r="F56" t="inlineStr">
         <is>
           <t>1731673097.7568645</t>
         </is>
       </c>
-      <c r="E56" t="inlineStr">
+      <c r="G56" t="inlineStr">
         <is>
           <t>./test_images/MXI1731673097.4315329.png</t>
         </is>
       </c>
-      <c r="F56" t="inlineStr">
+      <c r="H56" t="inlineStr">
         <is>
           <t>./test_images/MXI1731673097.7568645.png</t>
         </is>
       </c>
-      <c r="G56" t="inlineStr">
+      <c r="I56" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I56" t="n">
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K56" t="n">
         <v>3019.05</v>
       </c>
-      <c r="J56" t="n">
+      <c r="L56" t="n">
         <v>3012.35</v>
       </c>
-      <c r="K56" t="n">
+      <c r="M56" t="n">
         <v>6.700000000000273</v>
       </c>
-      <c r="L56" t="n">
+      <c r="N56" t="n">
         <v>0.22</v>
       </c>
     </row>
@@ -3249,51 +3589,57 @@
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
-      <c r="B57" t="inlineStr">
+      <c r="B57" t="n">
+        <v>55</v>
+      </c>
+      <c r="C57" t="n">
+        <v>55</v>
+      </c>
+      <c r="D57" t="inlineStr">
         <is>
           <t>RUAL</t>
         </is>
       </c>
-      <c r="C57" t="inlineStr">
+      <c r="E57" t="inlineStr">
         <is>
           <t>1731673110.3327699</t>
         </is>
       </c>
-      <c r="D57" t="inlineStr">
+      <c r="F57" t="inlineStr">
         <is>
           <t>1731673113.056885</t>
         </is>
       </c>
-      <c r="E57" t="inlineStr">
+      <c r="G57" t="inlineStr">
         <is>
           <t>./test_images/RUAL1731673110.3327699.png</t>
         </is>
       </c>
-      <c r="F57" t="inlineStr">
+      <c r="H57" t="inlineStr">
         <is>
           <t>./test_images/RUAL1731673113.056885.png</t>
         </is>
       </c>
-      <c r="G57" t="inlineStr">
+      <c r="I57" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I57" t="n">
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K57" t="n">
         <v>34.895</v>
       </c>
-      <c r="J57" t="n">
+      <c r="L57" t="n">
         <v>34.725</v>
       </c>
-      <c r="K57" t="n">
+      <c r="M57" t="n">
         <v>-0.1700000000000017</v>
       </c>
-      <c r="L57" t="n">
+      <c r="N57" t="n">
         <v>-0.49</v>
       </c>
     </row>
@@ -3301,51 +3647,57 @@
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
-      <c r="B58" t="inlineStr">
+      <c r="B58" t="n">
+        <v>56</v>
+      </c>
+      <c r="C58" t="n">
+        <v>56</v>
+      </c>
+      <c r="D58" t="inlineStr">
         <is>
           <t>RUAL</t>
         </is>
       </c>
-      <c r="C58" t="inlineStr">
+      <c r="E58" t="inlineStr">
         <is>
           <t>1731673128.0447936</t>
         </is>
       </c>
-      <c r="D58" t="inlineStr">
+      <c r="F58" t="inlineStr">
         <is>
           <t>1731673132.9841738</t>
         </is>
       </c>
-      <c r="E58" t="inlineStr">
+      <c r="G58" t="inlineStr">
         <is>
           <t>./test_images/RUAL1731673128.0447936.png</t>
         </is>
       </c>
-      <c r="F58" t="inlineStr">
+      <c r="H58" t="inlineStr">
         <is>
           <t>./test_images/RUAL1731673132.9841738.png</t>
         </is>
       </c>
-      <c r="G58" t="inlineStr">
+      <c r="I58" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I58" t="n">
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K58" t="n">
         <v>34.935</v>
       </c>
-      <c r="J58" t="n">
+      <c r="L58" t="n">
         <v>34.41</v>
       </c>
-      <c r="K58" t="n">
+      <c r="M58" t="n">
         <v>0.5250000000000057</v>
       </c>
-      <c r="L58" t="n">
+      <c r="N58" t="n">
         <v>1.5</v>
       </c>
     </row>
@@ -3429,19 +3781,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.7800000000000296</v>
+        <v>0.9000000000000341</v>
       </c>
       <c r="C3" t="n">
         <v>5</v>
       </c>
       <c r="D3" t="n">
-        <v>0.1560000000000059</v>
+        <v>0.1800000000000068</v>
       </c>
       <c r="E3" t="n">
-        <v>0.59</v>
+        <v>0.6799999999999999</v>
       </c>
       <c r="F3" t="n">
-        <v>0.12</v>
+        <v>0.14</v>
       </c>
     </row>
     <row r="4">
@@ -3451,19 +3803,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>5.699999999999989</v>
+        <v>5</v>
       </c>
       <c r="C4" t="n">
         <v>5</v>
       </c>
       <c r="D4" t="n">
-        <v>1.139999999999998</v>
+        <v>1</v>
       </c>
       <c r="E4" t="n">
-        <v>1.12</v>
+        <v>0.9799999999999999</v>
       </c>
       <c r="F4" t="n">
-        <v>0.22</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="5">
@@ -3495,19 +3847,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.2599999999999909</v>
+        <v>0.460000000000008</v>
       </c>
       <c r="C6" t="n">
         <v>4</v>
       </c>
       <c r="D6" t="n">
-        <v>0.06499999999999773</v>
+        <v>0.115000000000002</v>
       </c>
       <c r="E6" t="n">
-        <v>0.16</v>
+        <v>0.28</v>
       </c>
       <c r="F6" t="n">
-        <v>0.04</v>
+        <v>0.07000000000000001</v>
       </c>
     </row>
     <row r="7">
@@ -3517,19 +3869,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.2000000000000455</v>
+        <v>-1.200000000000045</v>
       </c>
       <c r="C7" t="n">
         <v>3</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.06666666666668182</v>
+        <v>-0.4000000000000152</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.009999999999999981</v>
+        <v>-0.07999999999999997</v>
       </c>
       <c r="F7" t="n">
-        <v>-0</v>
+        <v>-0.03</v>
       </c>
     </row>
     <row r="8">
@@ -3539,19 +3891,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.0005799999999999972</v>
+        <v>-0.0002399999999999763</v>
       </c>
       <c r="C8" t="n">
         <v>3</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.0001933333333333324</v>
+        <v>-7.999999999999212e-05</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.57</v>
+        <v>-0.23</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.19</v>
+        <v>-0.08</v>
       </c>
     </row>
     <row r="9">
@@ -3561,19 +3913,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-0.7099999999999795</v>
+        <v>-0.5199999999999818</v>
       </c>
       <c r="C9" t="n">
         <v>3</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.2366666666666598</v>
+        <v>-0.1733333333333273</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.24</v>
+        <v>-0.17</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.08</v>
+        <v>-0.06</v>
       </c>
     </row>
     <row r="10">
@@ -3605,19 +3957,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.06000000000000227</v>
+        <v>-0.0800000000000054</v>
       </c>
       <c r="C11" t="n">
         <v>2</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.03000000000000114</v>
+        <v>-0.0400000000000027</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.1</v>
+        <v>-0.13</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.05</v>
+        <v>-0.06</v>
       </c>
     </row>
     <row r="12">
@@ -3649,19 +4001,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.157</v>
+        <v>-0.1460000000000008</v>
       </c>
       <c r="C13" t="n">
         <v>2</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.07850000000000001</v>
+        <v>-0.0730000000000004</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.74</v>
+        <v>-0.6899999999999999</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.37</v>
+        <v>-0.34</v>
       </c>
     </row>
     <row r="14">
@@ -3693,19 +4045,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.2599999999999909</v>
+        <v>0.1500000000000057</v>
       </c>
       <c r="C15" t="n">
         <v>2</v>
       </c>
       <c r="D15" t="n">
-        <v>0.1299999999999955</v>
+        <v>0.07500000000000284</v>
       </c>
       <c r="E15" t="n">
-        <v>0.11</v>
+        <v>0.06</v>
       </c>
       <c r="F15" t="n">
-        <v>0.06</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="16">
@@ -3737,19 +4089,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.002099999999999991</v>
+        <v>-0.001099999999999879</v>
       </c>
       <c r="C17" t="n">
         <v>2</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.001049999999999995</v>
+        <v>-0.0005499999999999394</v>
       </c>
       <c r="E17" t="n">
-        <v>-0.35</v>
+        <v>-0.18</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.18</v>
+        <v>-0.09</v>
       </c>
     </row>
     <row r="18">
@@ -3759,19 +4111,19 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.7599999999999909</v>
+        <v>-0.7999999999999829</v>
       </c>
       <c r="C18" t="n">
         <v>2</v>
       </c>
       <c r="D18" t="n">
-        <v>-0.3799999999999955</v>
+        <v>-0.3999999999999915</v>
       </c>
       <c r="E18" t="n">
-        <v>-0.58</v>
+        <v>-0.61</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.29</v>
+        <v>-0.3</v>
       </c>
     </row>
     <row r="19">
